--- a/target/classes/Q11-Hosting.xlsx
+++ b/target/classes/Q11-Hosting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://znetcorp-my.sharepoint.com/personal/varun_racknap_com/Documents/Varun Ranjan/Automation/MyFramework/com.hostingq11.jenkins/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1410" documentId="11_F25DC773A252ABDACC10480549DE4FE05ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F513E1FC-4DF6-40E0-A4FD-575023AB338F}"/>
+  <xr:revisionPtr revIDLastSave="1413" documentId="11_F25DC773A252ABDACC10480549DE4FE05ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1A801A-2CF1-4E3A-A51E-6C740A4B0A49}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="589" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="589" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosting_bank" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="254">
   <si>
     <t xml:space="preserve">By Default </t>
   </si>
@@ -378,14 +378,6 @@
 (Includes setup fees: ₹ 15.00)</t>
   </si>
   <si>
-    <t>25/02/2022</t>
-  </si>
-  <si>
-    <t>darksphynx.onmicrosoft.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 25/02/2022 - 24/03/2022 )</t>
-  </si>
-  <si>
     <t>₹ 165.00</t>
   </si>
   <si>
@@ -557,66 +549,7 @@
     <t>Your payment has been processed successfully</t>
   </si>
   <si>
-    <t>$ 2.48
-(Includes setup fees: $ 0.23)</t>
-  </si>
-  <si>
-    <t>$ 0.57
-(Includes: 25.50%)</t>
-  </si>
-  <si>
-    <t>$ 1.24
-(Includes setup fees: $ 0.11)</t>
-  </si>
-  <si>
     <t>$ 4.29</t>
-  </si>
-  <si>
-    <t>10/03/2022</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>Prometheus4492</t>
-  </si>
-  <si>
-    <t>j9Oc3490</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix144jr.onmicrosoft.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19/232.</t>
-  </si>
-  <si>
-    <t>ORDER/19/232</t>
-  </si>
-  <si>
-    <t>10/03/2022 18:07:40</t>
-  </si>
-  <si>
-    <t>INV/19/297</t>
-  </si>
-  <si>
-    <t>phoenix144jr.onmicrosoft.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 10/03/2022 - 09/04/2022 )</t>
-  </si>
-  <si>
-    <t>$ 2.48</t>
-  </si>
-  <si>
-    <t>$ 0.57</t>
-  </si>
-  <si>
-    <t>$ 1.24</t>
-  </si>
-  <si>
-    <t>ORDER/19/233</t>
-  </si>
-  <si>
-    <t>10/03/2022 18:56:12</t>
   </si>
   <si>
     <t xml:space="preserve">                            1 month
@@ -634,58 +567,11 @@
     <t>11-03-2022</t>
   </si>
   <si>
-    <t>$ 75.00</t>
-  </si>
-  <si>
-    <t>$ 19.13</t>
-  </si>
-  <si>
-    <t>$ 7.50</t>
-  </si>
-  <si>
-    <t>$ 94.13</t>
-  </si>
-  <si>
-    <t>$ 101.63</t>
-  </si>
-  <si>
-    <t>$ 75.00 / each</t>
-  </si>
-  <si>
-    <t>$ 0.00</t>
-  </si>
-  <si>
-    <t>$ 0.00 / per qty</t>
-  </si>
-  <si>
-    <t>$ 19.13 / uompercen</t>
-  </si>
-  <si>
-    <t>INV/19-20/5391</t>
-  </si>
-  <si>
-    <t>phoenix251xe.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry2019</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix116lm.com )</t>
-  </si>
-  <si>
-    <t>INV/19-20/5393</t>
-  </si>
-  <si>
     <t>phoenix116lm.com ( Linux Hosting New - Gold )
 Billing Cycle: Monthly  
 ( 11-03-2022 - 10-04-2022 )</t>
   </si>
   <si>
-    <t>twilightcry2033</t>
-  </si>
-  <si>
     <t>Linux Hosting New Gold ( for phoenix967lz.com )</t>
   </si>
   <si>
@@ -703,443 +589,10 @@
 ( 11-03-2022 - 10-04-2022 )</t>
   </si>
   <si>
-    <t>$ 82.50
-(Includes setup fees: $ 7.50)</t>
-  </si>
-  <si>
-    <t>$ 19.13
-(Includes: 25.50%)</t>
-  </si>
-  <si>
-    <t>Prometheus9113</t>
-  </si>
-  <si>
-    <t>zhvTc959</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix969lj.onmicrosoft.com )</t>
-  </si>
-  <si>
-    <t>twilightcry9256</t>
-  </si>
-  <si>
-    <t>Prometheus5665</t>
-  </si>
-  <si>
-    <t>uSjGD084</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix321ym.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4177</t>
-  </si>
-  <si>
-    <t>11-03-2022 12:24:52</t>
-  </si>
-  <si>
-    <t>INV/19-20/5399</t>
-  </si>
-  <si>
-    <t>day5434.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
     <t>ADDING RECEIPT</t>
   </si>
   <si>
-    <t>Prometheus53613</t>
-  </si>
-  <si>
-    <t>RbGzg123</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix796nz.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4186.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4186</t>
-  </si>
-  <si>
-    <t>11-03-2022 17:23:08</t>
-  </si>
-  <si>
-    <t>INV/19-20/5403</t>
-  </si>
-  <si>
-    <t>phoenix796nz.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus1897</t>
-  </si>
-  <si>
-    <t>DsLj9004</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix506dy.onmicrosoft.com )</t>
-  </si>
-  <si>
-    <t>Prometheus45089</t>
-  </si>
-  <si>
-    <t>2MRcA328</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix421ia.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4187.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4187</t>
-  </si>
-  <si>
-    <t>11-03-2022 20:09:19</t>
-  </si>
-  <si>
-    <t>INV/19-20/5406</t>
-  </si>
-  <si>
-    <t>phoenix421ia.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus21012</t>
-  </si>
-  <si>
-    <t>CkfWa133</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix484mc.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4188</t>
-  </si>
-  <si>
-    <t>11-03-2022 20:14:39</t>
-  </si>
-  <si>
-    <t>INV/19-20/5407</t>
-  </si>
-  <si>
-    <t>phoenix484mc.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry0080</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix580wk.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4189</t>
-  </si>
-  <si>
-    <t>11-03-2022 20:22:01</t>
-  </si>
-  <si>
-    <t>INV/19-20/5408</t>
-  </si>
-  <si>
-    <t>phoenix580wk.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry8659</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix460cf.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4190</t>
-  </si>
-  <si>
-    <t>11-03-2022 20:29:54</t>
-  </si>
-  <si>
-    <t>INV/19-20/5409</t>
-  </si>
-  <si>
-    <t>phoenix460cf.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus67823</t>
-  </si>
-  <si>
-    <t>Tt4BF393</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix003qg.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4191.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4191</t>
-  </si>
-  <si>
-    <t>11-03-2022 20:34:53</t>
-  </si>
-  <si>
-    <t>INV/19-20/5410</t>
-  </si>
-  <si>
-    <t>phoenix003qg.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus04630</t>
-  </si>
-  <si>
-    <t>BTwqG086</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix433da.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4192.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4192</t>
-  </si>
-  <si>
-    <t>11-03-2022 21:41:20</t>
-  </si>
-  <si>
-    <t>INV/19-20/5411</t>
-  </si>
-  <si>
-    <t>phoenix433da.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus40766</t>
-  </si>
-  <si>
-    <t>baDEh893</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix511fz.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4193</t>
-  </si>
-  <si>
-    <t>11-03-2022 21:46:23</t>
-  </si>
-  <si>
-    <t>INV/19-20/5412</t>
-  </si>
-  <si>
-    <t>phoenix511fz.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry3088</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix037xb.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4194</t>
-  </si>
-  <si>
-    <t>11-03-2022 21:53:17</t>
-  </si>
-  <si>
-    <t>INV/19-20/5413</t>
-  </si>
-  <si>
-    <t>phoenix037xb.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry2299</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix294pd.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4195</t>
-  </si>
-  <si>
-    <t>11-03-2022 22:00:00</t>
-  </si>
-  <si>
-    <t>INV/19-20/5414</t>
-  </si>
-  <si>
-    <t>phoenix294pd.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus92758</t>
-  </si>
-  <si>
-    <t>uGaBZ106</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix270bc.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4196.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4196</t>
-  </si>
-  <si>
-    <t>11-03-2022 22:04:48</t>
-  </si>
-  <si>
-    <t>INV/19-20/5415</t>
-  </si>
-  <si>
-    <t>phoenix270bc.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 11-03-2022 - 10-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus80705</t>
-  </si>
-  <si>
-    <t>pvNsf516</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix021rf.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4197.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4197</t>
-  </si>
-  <si>
-    <t>12-03-2022 00:23:59</t>
-  </si>
-  <si>
     <t>12-03-2022</t>
-  </si>
-  <si>
-    <t>INV/19-20/5416</t>
-  </si>
-  <si>
-    <t>phoenix021rf.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 12-03-2022 - 11-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus09487</t>
-  </si>
-  <si>
-    <t>AYFug132</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix411vb.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4198</t>
-  </si>
-  <si>
-    <t>12-03-2022 00:28:56</t>
-  </si>
-  <si>
-    <t>INV/19-20/5417</t>
-  </si>
-  <si>
-    <t>phoenix411vb.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 12-03-2022 - 11-04-2022 )</t>
-  </si>
-  <si>
-    <t>twilightcry8987</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix971ha.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4199</t>
-  </si>
-  <si>
-    <t>12-03-2022 00:35:58</t>
-  </si>
-  <si>
-    <t>twilightcry6530</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix235wc.com )</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4200</t>
-  </si>
-  <si>
-    <t>12-03-2022 00:44:34</t>
-  </si>
-  <si>
-    <t>INV/19-20/5419</t>
-  </si>
-  <si>
-    <t>phoenix235wc.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 12-03-2022 - 11-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus06752</t>
-  </si>
-  <si>
-    <t>G6U92203</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix841kj.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4201.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4201</t>
-  </si>
-  <si>
-    <t>12-03-2022 00:49:30</t>
-  </si>
-  <si>
-    <t>INV/19-20/5420</t>
-  </si>
-  <si>
-    <t>phoenix841kj.com ( Linux Hosting New - Gold )
-Billing Cycle: Monthly  
-( 12-03-2022 - 11-04-2022 )</t>
-  </si>
-  <si>
-    <t>Prometheus21818</t>
-  </si>
-  <si>
-    <t>woOr7522</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix160qc.com )</t>
-  </si>
-  <si>
-    <t>Thank you for placing the order. Your order ID is ORDER/19-20/4202.</t>
-  </si>
-  <si>
-    <t>ORDER/19-20/4202</t>
-  </si>
-  <si>
-    <t>12-03-2022 10:04:57</t>
   </si>
   <si>
     <t>INV/19-20/5421</t>
@@ -1179,12 +632,6 @@
     <t>Linux Hosting New Gold ( for phoenix128zs.com )</t>
   </si>
   <si>
-    <t>ORDER/19-20/4204</t>
-  </si>
-  <si>
-    <t>12-03-2022 10:16:51</t>
-  </si>
-  <si>
     <t>INV/19-20/5423</t>
   </si>
   <si>
@@ -1193,9 +640,6 @@
 ( 12-03-2022 - 11-04-2022 )</t>
   </si>
   <si>
-    <t>twilightcry8723</t>
-  </si>
-  <si>
     <t>Linux Hosting New Gold ( for phoenix822ti.com )</t>
   </si>
   <si>
@@ -1239,37 +683,165 @@
 ( 12-03-2022 - 11-04-2022 )</t>
   </si>
   <si>
-    <t>Prometheus3003</t>
-  </si>
-  <si>
-    <t>lOXwX024</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix021uu.onmicrosoft.com )</t>
-  </si>
-  <si>
-    <t>Prometheus8330</t>
-  </si>
-  <si>
-    <t>ACBS4834</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix446mx.onmicrosoft.com )</t>
-  </si>
-  <si>
-    <t>twilightcry3221</t>
-  </si>
-  <si>
-    <t>twilightcry9752</t>
-  </si>
-  <si>
-    <t>Prometheus3316</t>
-  </si>
-  <si>
-    <t>XOppv007</t>
-  </si>
-  <si>
-    <t>Linux Hosting New Gold ( for phoenix190ss.onmicrosoft.com )</t>
+    <t>12/03/2022</t>
+  </si>
+  <si>
+    <t>285.75</t>
+  </si>
+  <si>
+    <t>twilightcry2065</t>
+  </si>
+  <si>
+    <t>INV/19/306</t>
+  </si>
+  <si>
+    <t>phoenix213za.onmicrosoft.com ( Linux Hosting New - Gold )
+Billing Cycle: Monthly  
+( 12/03/2022 - 11/04/2022 )</t>
+  </si>
+  <si>
+    <t>Prometheus5853</t>
+  </si>
+  <si>
+    <t>iAjl3000</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix065zx.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>ORDER/19/246</t>
+  </si>
+  <si>
+    <t>12/03/2022 21:03:02</t>
+  </si>
+  <si>
+    <t>INV/19/307</t>
+  </si>
+  <si>
+    <t>phoenix065zx.onmicrosoft.com ( Linux Hosting New - Gold )
+Billing Cycle: Monthly  
+( 12/03/2022 - 11/04/2022 )</t>
+  </si>
+  <si>
+    <t>twilightcry3930</t>
+  </si>
+  <si>
+    <t>twilightcry6791</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix501ed.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>ORDER/19-20/4225</t>
+  </si>
+  <si>
+    <t>12-03-2022 21:17:56</t>
+  </si>
+  <si>
+    <t>INV/19-20/5444</t>
+  </si>
+  <si>
+    <t>phoenix501ed.onmicrosoft.com ( Linux Hosting New - Gold )
+Billing Cycle: Monthly  
+( 12-03-2022 - 11-04-2022 )</t>
+  </si>
+  <si>
+    <t>Prometheus2246</t>
+  </si>
+  <si>
+    <t>ymIIj762</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix950at.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Thank you for placing the order. Your order ID is ORDER/19/247.</t>
+  </si>
+  <si>
+    <t>ORDER/19/247</t>
+  </si>
+  <si>
+    <t>12/03/2022 21:23:08</t>
+  </si>
+  <si>
+    <t>INV/19/308</t>
+  </si>
+  <si>
+    <t>phoenix950at.onmicrosoft.com ( Linux Hosting New - Gold )
+Billing Cycle: Monthly  
+( 12/03/2022 - 11/04/2022 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Prometheus29883</t>
+  </si>
+  <si>
+    <t>UhEir624</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix881iu.com )</t>
+  </si>
+  <si>
+    <t>Prometheus49297</t>
+  </si>
+  <si>
+    <t>otCYX990</t>
+  </si>
+  <si>
+    <t>Prometheus55488</t>
+  </si>
+  <si>
+    <t>l4NYR557</t>
+  </si>
+  <si>
+    <t>Prometheus45569</t>
+  </si>
+  <si>
+    <t>TCwZn145</t>
+  </si>
+  <si>
+    <t>Prometheus76998</t>
+  </si>
+  <si>
+    <t>ZZL9i497</t>
+  </si>
+  <si>
+    <t>Prometheus08860</t>
+  </si>
+  <si>
+    <t>DWeip888</t>
+  </si>
+  <si>
+    <t>Prometheus67019</t>
+  </si>
+  <si>
+    <t>Lk90J093</t>
+  </si>
+  <si>
+    <t>Prometheus35822</t>
+  </si>
+  <si>
+    <t>umTG8061</t>
+  </si>
+  <si>
+    <t>Prometheus33117</t>
+  </si>
+  <si>
+    <t>RiDw8321</t>
+  </si>
+  <si>
+    <t>Prometheus61295</t>
+  </si>
+  <si>
+    <t>2aSQu582</t>
+  </si>
+  <si>
+    <t>Prometheus92964</t>
+  </si>
+  <si>
+    <t>cGoBk183</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,16 +970,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="52"/>
       </patternFill>
@@ -1430,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1462,9 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,32 +1049,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,20 +1363,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -1856,23 +1390,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>366</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1889,7 +1423,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1900,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1909,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1920,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1929,7 +1463,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1940,16 +1474,16 @@
         <v>25.5</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1960,16 +1494,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1980,16 +1514,16 @@
         <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -2000,59 +1534,59 @@
         <v>190.5</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2101,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -2154,16 +1688,16 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2181,43 +1715,43 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -2253,10 +1787,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -2274,10 +1808,10 @@
         <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2303,10 +1837,10 @@
         <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2332,10 +1866,10 @@
         <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2357,10 +1891,10 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2371,10 +1905,10 @@
         <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2385,10 +1919,10 @@
         <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2401,19 +1935,19 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>198</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -2426,7 +1960,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>370</v>
+        <v>199</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2438,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2450,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2520,7 +2054,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2531,25 +2065,25 @@
         <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -2560,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,42 +2102,42 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
@@ -2643,7 +2177,7 @@
         <v>64</v>
       </c>
       <c r="L61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M61" t="s">
         <v>64</v>
@@ -2663,10 +2197,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
@@ -2690,25 +2224,25 @@
         <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>55</v>
       </c>
       <c r="N62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>58</v>
       </c>
       <c r="P62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q62" t="s">
         <v>88</v>
@@ -2743,25 +2277,25 @@
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q63" t="s">
         <v>88</v>
@@ -2796,25 +2330,25 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q64" t="s">
         <v>88</v>
@@ -2840,7 +2374,7 @@
         <v>61</v>
       </c>
       <c r="L66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M66" t="s">
         <v>88</v>
@@ -2854,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="L67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M67" t="s">
         <v>88</v>
@@ -2868,7 +2402,7 @@
         <v>62</v>
       </c>
       <c r="L68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M68" t="s">
         <v>88</v>
@@ -2878,42 +2412,42 @@
       <c r="K69" s="9"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
-        <v>223</v>
+      <c r="A71" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="A80" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -2952,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -2975,7 +2509,7 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
@@ -2998,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -3021,7 +2555,7 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -3078,38 +2612,38 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31" t="s">
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31" t="s">
+      <c r="F88" s="28"/>
+      <c r="G88" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31" t="s">
+      <c r="H88" s="28"/>
+      <c r="I88" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31" t="s">
+      <c r="J88" s="28"/>
+      <c r="K88" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31" t="s">
+      <c r="L88" s="28"/>
+      <c r="M88" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N88" s="32"/>
-      <c r="O88" s="31" t="s">
+      <c r="N88" s="29"/>
+      <c r="O88" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P88" s="31"/>
+      <c r="P88" s="28"/>
       <c r="Q88" s="12" t="s">
         <v>66</v>
       </c>
@@ -3149,7 +2683,7 @@
         <v>64</v>
       </c>
       <c r="L89" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M89" s="25" t="s">
         <v>64</v>
@@ -3169,10 +2703,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>50</v>
@@ -3196,25 +2730,25 @@
         <v>53</v>
       </c>
       <c r="J90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>53</v>
       </c>
       <c r="L90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>55</v>
       </c>
       <c r="N90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>58</v>
       </c>
       <c r="P90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q90" t="s">
         <v>88</v>
@@ -3249,25 +2783,25 @@
         <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>59</v>
       </c>
       <c r="P91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q91" t="s">
         <v>88</v>
@@ -3302,25 +2836,25 @@
         <v>54</v>
       </c>
       <c r="J92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q92" t="s">
         <v>88</v>
@@ -3368,7 +2902,7 @@
         <v>61</v>
       </c>
       <c r="L94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M94" t="s">
         <v>88</v>
@@ -3395,7 +2929,7 @@
         <v>62</v>
       </c>
       <c r="L95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M95" t="s">
         <v>88</v>
@@ -3422,7 +2956,7 @@
         <v>62</v>
       </c>
       <c r="L96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M96" t="s">
         <v>88</v>
@@ -3502,20 +3036,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -3529,23 +3063,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -3562,7 +3096,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -3582,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -3593,7 +3127,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -3602,7 +3136,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -3619,10 +3153,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -3639,10 +3173,10 @@
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -3659,10 +3193,10 @@
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -3679,53 +3213,53 @@
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -3745,7 +3279,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>64</v>
@@ -3861,30 +3395,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -3920,10 +3454,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -3941,10 +3475,10 @@
         <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3970,10 +3504,10 @@
         <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3999,10 +3533,10 @@
         <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4024,10 +3558,10 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4038,10 +3572,10 @@
         <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4052,10 +3586,10 @@
         <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4070,12 +3604,12 @@
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -4088,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>182</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -4100,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>183</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4112,7 +3646,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -4123,7 +3657,7 @@
     </row>
     <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
@@ -4170,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4183,19 +3717,19 @@
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +3737,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +3745,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,42 +3753,42 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
@@ -4294,7 +3828,7 @@
         <v>64</v>
       </c>
       <c r="L61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M61" s="24" t="s">
         <v>64</v>
@@ -4314,10 +3848,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
@@ -4341,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>55</v>
       </c>
       <c r="N62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>58</v>
       </c>
       <c r="P62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q62" t="s">
         <v>88</v>
@@ -4394,25 +3928,25 @@
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q63" t="s">
         <v>88</v>
@@ -4447,25 +3981,25 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q64" t="s">
         <v>88</v>
@@ -4580,20 +4114,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -4607,23 +4141,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -4640,7 +4174,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -4660,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -4680,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -4697,10 +4231,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -4717,7 +4251,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -4734,7 +4268,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -4751,41 +4285,41 @@
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -4920,30 +4454,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -4979,10 +4513,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -5129,12 +4663,12 @@
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -5147,7 +4681,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -5159,7 +4693,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5171,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5193,7 +4727,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -5235,19 +4769,19 @@
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -5258,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,38 +4809,38 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
@@ -5366,10 +4900,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
@@ -5614,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED16E5-57A4-4741-9BC1-063EF865C8EC}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,20 +5175,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -5668,23 +5202,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -5701,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -5721,7 +5255,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -5732,7 +5266,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -5741,7 +5275,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -5758,10 +5292,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -5778,7 +5312,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -5795,7 +5329,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -5812,41 +5346,41 @@
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -5981,30 +5515,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -6040,10 +5574,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -6164,7 +5698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
@@ -6178,72 +5712,75 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N40" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
@@ -6252,7 +5789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>95</v>
       </c>
@@ -6265,21 +5802,21 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="26"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -6290,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -6303,19 +5840,19 @@
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,7 +5860,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +5868,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,42 +5876,42 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
@@ -6434,10 +5971,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
@@ -6685,7 +6222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF31DD-FCC9-481B-9EE6-F707D7145A1D}">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
@@ -6710,20 +6247,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -6735,23 +6272,23 @@
       <c r="U1" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -6768,7 +6305,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -6788,7 +6325,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -6808,7 +6345,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6826,7 +6363,7 @@
       </c>
       <c r="J8" s="15"/>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -6844,7 +6381,7 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -6862,7 +6399,7 @@
       </c>
       <c r="J10" s="15"/>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -6880,44 +6417,44 @@
       </c>
       <c r="J11" s="15"/>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J12" s="15"/>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J13" s="15"/>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -7052,30 +6589,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -7111,10 +6648,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -7132,10 +6669,10 @@
         <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -7161,10 +6698,10 @@
         <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -7190,10 +6727,10 @@
         <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -7215,10 +6752,10 @@
         <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -7229,10 +6766,10 @@
         <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -7250,19 +6787,19 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -7275,7 +6812,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -7287,7 +6824,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -7299,7 +6836,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -7349,8 +6886,12 @@
       <c r="A47" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
@@ -7365,7 +6906,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -7375,24 +6916,26 @@
       <c r="A50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -7403,7 +6946,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -7411,41 +6954,41 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31" t="s">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31" t="s">
+      <c r="F59" s="28"/>
+      <c r="G59" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31" t="s">
+      <c r="H59" s="28"/>
+      <c r="I59" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31" t="s">
+      <c r="J59" s="28"/>
+      <c r="K59" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31" t="s">
+      <c r="L59" s="28"/>
+      <c r="M59" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N59" s="31"/>
+      <c r="N59" s="28"/>
       <c r="O59" s="12" t="s">
         <v>66</v>
       </c>
@@ -7499,10 +7042,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>50</v>
@@ -7523,25 +7066,25 @@
         <v>25</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N61" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O61" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -7573,22 +7116,22 @@
         <v>99</v>
       </c>
       <c r="J62" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>99</v>
       </c>
       <c r="L62" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>99</v>
       </c>
       <c r="N62" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="O62" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -7617,25 +7160,25 @@
         <v>52</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N63" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="O63" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -7655,7 +7198,7 @@
         <v>62</v>
       </c>
       <c r="N65" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="O65" t="s">
         <v>88</v>
@@ -7669,7 +7212,7 @@
         <v>62</v>
       </c>
       <c r="N66" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="O66" t="s">
         <v>88</v>
@@ -7679,108 +7222,108 @@
       <c r="K67" s="9"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
-        <v>223</v>
+      <c r="A71" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B74" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B76" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B77" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="A80" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="25" t="s">
-        <v>230</v>
+      <c r="B82" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>188</v>
+      <c r="B83" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>188</v>
+      <c r="B84" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>188</v>
+      <c r="B85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31" t="s">
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31" t="s">
+      <c r="F88" s="28"/>
+      <c r="G88" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31" t="s">
+      <c r="H88" s="28"/>
+      <c r="I88" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31" t="s">
+      <c r="J88" s="28"/>
+      <c r="K88" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31" t="s">
+      <c r="L88" s="28"/>
+      <c r="M88" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N88" s="32"/>
-      <c r="O88" s="31" t="s">
+      <c r="N88" s="29"/>
+      <c r="O88" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P88" s="31"/>
+      <c r="P88" s="28"/>
       <c r="Q88" s="12" t="s">
         <v>66</v>
       </c>
@@ -7820,7 +7363,7 @@
         <v>64</v>
       </c>
       <c r="L89" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M89" s="25" t="s">
         <v>64</v>
@@ -7839,53 +7382,53 @@
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>231</v>
+      <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" t="s">
+        <v>229</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" t="s">
         <v>50</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" t="s">
         <v>37</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" t="s">
         <v>25</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J90" s="25" t="s">
-        <v>116</v>
+      <c r="J90" t="s">
+        <v>111</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L90" s="25" t="s">
-        <v>116</v>
+      <c r="L90" t="s">
+        <v>111</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N90" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>58</v>
+      <c r="N90" t="s">
+        <v>111</v>
+      </c>
+      <c r="O90" t="s">
+        <v>88</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q90" s="25" t="s">
         <v>88</v>
@@ -7895,50 +7438,50 @@
       <c r="A91" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" t="s">
         <v>50</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" t="s">
         <v>37</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" t="s">
         <v>51</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J91" s="25" t="s">
-        <v>117</v>
+      <c r="J91" t="s">
+        <v>99</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="25" t="s">
-        <v>117</v>
+      <c r="L91" t="s">
+        <v>99</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N91" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O91" s="6" t="s">
-        <v>59</v>
+      <c r="N91" t="s">
+        <v>99</v>
+      </c>
+      <c r="O91" t="s">
+        <v>88</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q91" s="25" t="s">
         <v>88</v>
@@ -7948,50 +7491,50 @@
       <c r="A92" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" t="s">
         <v>49</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" t="s">
         <v>37</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" t="s">
         <v>52</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J92" s="25" t="s">
-        <v>118</v>
+      <c r="J92" t="s">
+        <v>112</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L92" s="25" t="s">
-        <v>118</v>
+      <c r="L92" t="s">
+        <v>112</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N92" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="O92" s="6" t="s">
-        <v>60</v>
+      <c r="N92" t="s">
+        <v>112</v>
+      </c>
+      <c r="O92" t="s">
+        <v>88</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q92" s="25" t="s">
         <v>88</v>
@@ -8014,9 +7557,15 @@
         <v>62</v>
       </c>
       <c r="L94" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M94" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N94" t="s">
+        <v>102</v>
+      </c>
+      <c r="O94" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8028,9 +7577,15 @@
         <v>62</v>
       </c>
       <c r="L95" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M95" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N95" t="s">
+        <v>102</v>
+      </c>
+      <c r="O95" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8081,7 +7636,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8105,20 +7660,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -8130,23 +7685,23 @@
       <c r="U1" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -8163,7 +7718,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>378</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -8174,7 +7729,7 @@
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -8183,7 +7738,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -8194,7 +7749,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -8203,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -8214,14 +7769,14 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -8232,14 +7787,14 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -8250,14 +7805,14 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -8268,51 +7823,51 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J12" s="15"/>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J13" s="15"/>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -8332,7 +7887,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>64</v>
@@ -8359,16 +7914,16 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8407,16 +7962,16 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8434,43 +7989,43 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -8506,10 +8061,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -8527,10 +8082,10 @@
         <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8556,10 +8111,10 @@
         <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8585,10 +8140,10 @@
         <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8610,10 +8165,10 @@
         <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8624,10 +8179,10 @@
         <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8646,12 +8201,12 @@
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -8664,7 +8219,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -8676,7 +8231,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -8688,7 +8243,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -8758,7 +8313,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -8769,25 +8324,25 @@
         <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="C54"/>
     </row>
@@ -8796,7 +8351,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -8804,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -8812,38 +8367,38 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31" t="s">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31" t="s">
+      <c r="F59" s="28"/>
+      <c r="G59" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31" t="s">
+      <c r="H59" s="28"/>
+      <c r="I59" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31" t="s">
+      <c r="J59" s="28"/>
+      <c r="K59" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31" t="s">
+      <c r="L59" s="28"/>
+      <c r="M59" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N59" s="31"/>
+      <c r="N59" s="28"/>
       <c r="O59" s="12" t="s">
         <v>66</v>
       </c>
@@ -8897,10 +8452,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>50</v>
@@ -8921,22 +8476,22 @@
         <v>25</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O61" t="s">
         <v>45</v>
@@ -9015,22 +8570,22 @@
         <v>52</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O63" t="s">
         <v>45</v>
@@ -9136,20 +8691,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -9163,23 +8718,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -9196,7 +8751,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -9216,7 +8771,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -9227,7 +8782,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -9236,7 +8791,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -9253,10 +8808,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -9273,7 +8828,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -9290,7 +8845,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -9307,41 +8862,41 @@
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -9476,30 +9031,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -9534,31 +9089,31 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>201</v>
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9566,28 +9121,28 @@
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9595,28 +9150,28 @@
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" t="s">
         <v>73</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9638,10 +9193,10 @@
       <c r="G31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9652,10 +9207,10 @@
       <c r="G32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9666,10 +9221,10 @@
       <c r="G33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9685,12 +9240,12 @@
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -9702,8 +9257,8 @@
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>151</v>
+      <c r="B40" t="s">
+        <v>218</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -9714,8 +9269,8 @@
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>152</v>
+      <c r="B41" t="s">
+        <v>219</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -9726,8 +9281,8 @@
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>150</v>
+      <c r="B42" t="s">
+        <v>176</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -9749,7 +9304,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -9778,6 +9339,9 @@
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -9791,21 +9355,21 @@
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="25" t="s">
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9813,105 +9377,108 @@
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>188</v>
+      <c r="B55" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>165</v>
+      <c r="B56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>65</v>
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>65</v>
+      <c r="D61" t="s">
+        <v>50</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="25" t="s">
-        <v>65</v>
+      <c r="F61" t="s">
+        <v>37</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>65</v>
+      <c r="H61" t="s">
+        <v>25</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J61" s="25" t="s">
-        <v>65</v>
+      <c r="J61" t="s">
+        <v>53</v>
       </c>
       <c r="K61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L61" s="25" t="s">
-        <v>65</v>
+      <c r="L61" t="s">
+        <v>53</v>
       </c>
       <c r="M61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N61" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="O61" s="25" t="s">
-        <v>64</v>
+      <c r="N61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
       </c>
       <c r="P61" s="25" t="s">
         <v>65</v>
@@ -9922,49 +9489,49 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>203</v>
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" t="s">
         <v>50</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" t="s">
         <v>37</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>25</v>
+      <c r="H62" t="s">
+        <v>51</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J62" s="25" t="s">
-        <v>53</v>
+      <c r="J62" t="s">
+        <v>33</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L62" s="25" t="s">
-        <v>53</v>
+      <c r="L62" t="s">
+        <v>33</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N62" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>58</v>
+      <c r="N62" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" t="s">
+        <v>88</v>
       </c>
       <c r="P62" s="25" t="s">
         <v>58</v>
@@ -9977,47 +9544,47 @@
       <c r="A63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>48</v>
+      <c r="B63" t="s">
+        <v>49</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" t="s">
         <v>50</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" t="s">
         <v>37</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>51</v>
+      <c r="H63" t="s">
+        <v>52</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J63" s="25" t="s">
-        <v>33</v>
+      <c r="J63" t="s">
+        <v>54</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="25" t="s">
-        <v>33</v>
+      <c r="L63" t="s">
+        <v>54</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N63" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>59</v>
+      <c r="N63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
       </c>
       <c r="P63" s="25" t="s">
         <v>59</v>
@@ -10079,7 +9646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C65" s="9"/>
       <c r="K65" s="25" t="s">
         <v>64</v>
@@ -10090,8 +9657,14 @@
       <c r="M65" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>61</v>
+      </c>
+      <c r="O65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
       <c r="J66" s="2" t="s">
         <v>30</v>
       </c>
@@ -10104,8 +9677,14 @@
       <c r="M66" s="25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>62</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
       <c r="J67" s="2" t="s">
         <v>74</v>
       </c>
@@ -10119,7 +9698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
       <c r="J68" s="2" t="s">
         <v>27</v>
       </c>
@@ -10133,7 +9712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
       <c r="K69" s="9"/>
     </row>
   </sheetData>
@@ -10197,20 +9776,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -10224,23 +9803,23 @@
       <c r="W1" s="11"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="J3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="J3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>204</v>
+      <c r="K4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -10256,8 +9835,8 @@
       <c r="J5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>163</v>
+      <c r="K5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -10276,8 +9855,8 @@
       <c r="J6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>161</v>
+      <c r="K6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -10293,8 +9872,8 @@
       <c r="J7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>162</v>
+      <c r="K7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -10311,10 +9890,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>160</v>
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -10331,7 +9910,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -10348,7 +9927,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -10365,41 +9944,41 @@
         <v>45</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -10534,30 +10113,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="12" t="s">
         <v>66</v>
       </c>
@@ -10593,10 +10172,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -10743,12 +10322,12 @@
       <c r="H35" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="10"/>
       <c r="H38" s="18"/>
       <c r="I38" s="9"/>
@@ -10761,7 +10340,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -10773,7 +10352,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -10785,7 +10364,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -10796,7 +10375,7 @@
     </row>
     <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
@@ -10843,7 +10422,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -10856,19 +10435,19 @@
       <c r="E50" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10876,7 +10455,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10884,7 +10463,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10892,42 +10471,42 @@
         <v>31</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="31"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="12" t="s">
         <v>66</v>
       </c>
@@ -10987,10 +10566,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>

--- a/target/classes/Q11-Hosting.xlsx
+++ b/target/classes/Q11-Hosting.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="281">
   <si>
     <t xml:space="preserve">By Default </t>
   </si>
@@ -842,6 +842,87 @@
   </si>
   <si>
     <t>cGoBk183</t>
+  </si>
+  <si>
+    <t>Prometheus95894</t>
+  </si>
+  <si>
+    <t>ODuYZ712</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix975lr.com )</t>
+  </si>
+  <si>
+    <t>Prometheus93178</t>
+  </si>
+  <si>
+    <t>f6Jyc621</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix916gn.com )</t>
+  </si>
+  <si>
+    <t>Prometheus0811</t>
+  </si>
+  <si>
+    <t>4pHeb043</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix582fp.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Prometheus6455</t>
+  </si>
+  <si>
+    <t>v5AWt805</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix796dn.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Prometheus0536</t>
+  </si>
+  <si>
+    <t>2lnRw551</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix885ys.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Prometheus3793</t>
+  </si>
+  <si>
+    <t>UEgDD941</t>
+  </si>
+  <si>
+    <t>Prometheus9403</t>
+  </si>
+  <si>
+    <t>zbwjE678</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix435bb.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Prometheus9557</t>
+  </si>
+  <si>
+    <t>RmcfD191</t>
+  </si>
+  <si>
+    <t>Linux Hosting New Gold ( for phoenix880sr.onmicrosoft.com )</t>
+  </si>
+  <si>
+    <t>Prometheus8297</t>
+  </si>
+  <si>
+    <t>WXf43538</t>
+  </si>
+  <si>
+    <t>Prometheus0652</t>
+  </si>
+  <si>
+    <t>Yhaxy774</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1049,6 +1130,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3079,7 +3168,7 @@
         <v>75</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -3096,7 +3185,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -3127,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -3454,10 +3543,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
@@ -7701,7 +7790,7 @@
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -7718,7 +7807,7 @@
         <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -7749,7 +7838,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -8061,10 +8150,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>37</v>
